--- a/target/classes/rules/messageTest.xlsx
+++ b/target/classes/rules/messageTest.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22296" windowHeight="9120"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -104,6 +104,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Franklin Gothic Book"/>
+        <charset val="204"/>
+      </rPr>
       <t>meetingKeyWord = "</t>
     </r>
     <r>
@@ -648,10 +653,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="32">
     <font>
@@ -698,6 +703,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -705,7 +717,84 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -720,60 +809,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -794,6 +831,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -803,45 +847,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <name val="Franklin Gothic Book"/>
       <charset val="204"/>
@@ -908,13 +913,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,169 +1069,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1140,17 +1145,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1179,37 +1202,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1231,9 +1234,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1245,10 +1250,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1257,134 +1262,134 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1771,16 +1776,16 @@
   <sheetPr/>
   <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="41.1111111111111" customWidth="1"/>
+    <col min="1" max="1" width="41.1083333333333" customWidth="1"/>
     <col min="2" max="2" width="32.6666666666667" customWidth="1"/>
-    <col min="3" max="3" width="34.4444444444444" customWidth="1"/>
-    <col min="4" max="4" width="55.4444444444444" customWidth="1"/>
+    <col min="3" max="3" width="34.4416666666667" customWidth="1"/>
+    <col min="4" max="4" width="55.4416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="31" customHeight="1" spans="1:4">
@@ -1805,7 +1810,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" ht="15.15" spans="1:4">
+    <row r="3" ht="14.25" spans="1:4">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -2225,7 +2230,7 @@
       </c>
       <c r="D39" s="11"/>
     </row>
-    <row r="42" customFormat="1" ht="16.2" spans="1:2">
+    <row r="42" customFormat="1" ht="16.5" spans="1:2">
       <c r="A42" s="18" t="s">
         <v>48</v>
       </c>
@@ -2239,7 +2244,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="46" customFormat="1" ht="16.2" spans="1:2">
+    <row r="46" customFormat="1" ht="16.5" spans="1:2">
       <c r="A46" s="18" t="s">
         <v>50</v>
       </c>
